--- a/NhryService/src/main/webapp/report/template/OrgOrderTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/OrgOrderTemplate.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="1" r:id="rId1"/>
     <sheet name="订单行项目" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>计划开始配送日期</t>
   </si>
@@ -148,6 +148,13 @@
   </si>
   <si>
     <t>订户手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装箱状态
+10 已装箱
+20 未安装
+30 无需安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -591,12 +598,13 @@
     <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="18.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="57">
+    <row r="1" spans="1:8" ht="57">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -613,9 +621,12 @@
         <v>11</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -629,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>

--- a/NhryService/src/main/webapp/report/template/OrgOrderTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/OrgOrderTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="1" r:id="rId1"/>
@@ -48,45 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>间隔天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>配送规则字符串（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>01010110101011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>送达时段类型
 10 上午配送
 20 下午配送</t>
@@ -155,6 +116,16 @@
 10 已装箱
 20 未安装
 30 无需安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送规则字符串
+1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔天数
+0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -609,25 +580,25 @@
         <v>4</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -640,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -673,13 +644,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>0</v>
